--- a/Informacion plantillas/03- Informacion de Maquinaria y Vehiculos VD 01.xlsx
+++ b/Informacion plantillas/03- Informacion de Maquinaria y Vehiculos VD 01.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mi unidad\06-MANTENIMIENTO\Formatos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mi unidad\06-MANTENIMIENTO\Formatos\Elkin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C17F7838-CBD3-4DDA-8204-2004C66D4971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{040E3359-5571-4571-9303-2946BE09A55B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="806" activeTab="6" xr2:uid="{DABF25C9-7D38-4D4C-AC4B-E2A5FBB25EDF}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="34">
   <si>
     <t>IMAGEN</t>
   </si>
@@ -138,6 +138,12 @@
   </si>
   <si>
     <t>DOOSAN DL320A</t>
+  </si>
+  <si>
+    <t>PLACA</t>
+  </si>
+  <si>
+    <t>LICENCIA DE TRANSITO</t>
   </si>
 </sst>
 </file>
@@ -174,7 +180,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -197,11 +203,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -213,6 +245,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2210,12 +2248,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="A2:A11"/>
@@ -2223,6 +2255,12 @@
     <mergeCell ref="A13:D13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="C14:D14"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2361,12 +2399,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="A2:A11"/>
@@ -2374,6 +2406,12 @@
     <mergeCell ref="A13:D13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="C14:D14"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2512,12 +2550,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="A2:A11"/>
@@ -2525,6 +2557,12 @@
     <mergeCell ref="A13:D13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="C14:D14"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2663,12 +2701,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="A2:A11"/>
@@ -2676,6 +2708,12 @@
     <mergeCell ref="A13:D13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="C14:D14"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2684,10 +2722,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CA5878F-6EE4-43F4-B7D9-1DF0B25ADB04}">
-  <dimension ref="A2:D18"/>
+  <dimension ref="A2:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:D13"/>
+      <selection activeCell="A16" sqref="A16:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2764,7 +2802,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" s="2" t="s">
@@ -2783,43 +2821,49 @@
       <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="2"/>
+      <c r="A16" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="5">
+        <v>10020357127</v>
+      </c>
+      <c r="D16" s="6"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D17" s="2"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="2"/>
+      <c r="D19" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="15">
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="A2:A11"/>
@@ -2827,6 +2871,12 @@
     <mergeCell ref="A13:D13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="C14:D14"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2835,10 +2885,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBF1D522-365F-4B27-A5CE-7138AE03CB8C}">
-  <dimension ref="A2:D20"/>
+  <dimension ref="A2:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="C16" sqref="C16:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2934,40 +2984,44 @@
       <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="2"/>
+      <c r="A16" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="5">
+        <v>10027092604</v>
+      </c>
+      <c r="D16" s="6"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D17" s="2"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
+      <c r="D19" s="2"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
@@ -2975,25 +3029,33 @@
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
     </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="19">
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="C19:D19"/>
     <mergeCell ref="B2:D11"/>
     <mergeCell ref="A2:A11"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:D16"/>
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
     <mergeCell ref="A13:D13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="C15:D15"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C16:D16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
